--- a/WECC and NPCC Systems/Network Topology/Network_Topology_WECC.xlsx
+++ b/WECC and NPCC Systems/Network Topology/Network_Topology_WECC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qzhan\ENLITEN-Grid-Econ-Data\WECC_NPCC_Systems\Topology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qzhan\Dropbox\Journal\Scientific Data\ENLITEN-Grid-Econ-Data\WECC and NPCC Systems\Network Topology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E796254-7E1D-49D0-901B-B8FB3928911C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1213860-D14A-4ADD-B255-7805563F893D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66465" yWindow="1665" windowWidth="17100" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="427">
   <si>
     <t>idx</t>
   </si>
@@ -1299,6 +1299,9 @@
   </si>
   <si>
     <t>Line_263</t>
+  </si>
+  <si>
+    <t>Bus Coordinates Upon Request to CURENT LTB Team</t>
   </si>
 </sst>
 </file>
@@ -1357,11 +1360,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1666,11 +1670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1700,10 +1704,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-109.27731300000001</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>34.560040000000001</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1717,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-110.303798</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>34.938384999999997</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1734,10 +1738,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>-109.77731300000001</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>34.360039999999998</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1751,10 +1755,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-107.54645499999999</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>40.515247299999999</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1768,10 +1772,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>-107.54645499999999</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>40.314247299999998</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1785,10 +1789,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>-108.325669</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>36.527400999999998</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1802,10 +1806,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>-108.654569</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>36.857401000000003</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1819,10 +1823,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-108.48666900000001</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>36.687401000000001</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1836,10 +1840,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-108.325669</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>36.856400999999998</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1853,10 +1857,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-107.185575</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>40.487040999999998</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1870,10 +1874,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>-111.39040799999999</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>36.903900999999998</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1887,10 +1891,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>-111.39040799999999</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>36.702900999999997</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1904,10 +1908,10 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-111.448566</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>35.832560999999998</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1921,10 +1925,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>-112.86039700000001</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>33.386046999999998</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1938,10 +1942,10 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-112.659397</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>33.185046999999997</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1955,10 +1959,10 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>-108.243555</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>37.105570999999998</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1972,10 +1976,10 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>-108.441191</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>37.104154000000001</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1989,10 +1993,10 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>-112.322033</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>33.706718000000002</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -2006,10 +2010,10 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-111.590816</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>37.103549000000001</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -2023,10 +2027,10 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>-111.190816</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>36.703538999999999</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2040,10 +2044,10 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-111.190816</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>37.103558999999997</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -2057,10 +2061,10 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>-111.590806</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>36.703549000000002</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2074,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-111.648566</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>36.033560999999999</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -2091,10 +2095,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>-111.248566</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>35.631560999999998</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -2108,10 +2112,10 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-111.249566</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>36.032561000000001</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2125,10 +2129,10 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>-111.647566</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>35.732560999999997</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2142,10 +2146,10 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-108.655669</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>36.525401000000002</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2159,10 +2163,10 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-108.323669</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>36.857401000000003</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2176,10 +2180,10 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>-122.15089500000001</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>49.869314000000003</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2193,10 +2197,10 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>-122.15089500000001</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>50.969313999999997</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2210,10 +2214,10 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>-122.15089500000001</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>51.979314000000002</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2227,10 +2231,10 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>-121.61684</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>52.481673999999998</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2244,10 +2248,10 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>-121.924221</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>54.973191999999997</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2261,10 +2265,10 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>-122.2137</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>56.276212000000001</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2278,10 +2282,10 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>-108.79042699999999</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>41.734596000000003</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2295,10 +2299,10 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>-117.568105</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>34.551015</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2312,10 +2316,10 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>-117.538105</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>34.652014999999999</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2329,10 +2333,10 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>-118.607375</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>34.537506999999998</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2346,10 +2350,10 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>-118.65837500000001</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>34.587507000000002</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2363,10 +2367,10 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>-118.280282</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>34.157904000000002</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2380,10 +2384,10 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>-118.14631900000001</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>33.714452999999999</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2397,10 +2401,10 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>-118.09631899999999</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>33.762453000000001</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2414,10 +2418,10 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>-112.52797</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>39.548160000000003</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2431,10 +2435,10 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>-112.72797</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>39.496160000000003</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2448,10 +2452,10 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>-118.690631</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>34.313142999999997</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2465,10 +2469,10 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>-118.389938</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>34.545782000000003</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2482,10 +2486,10 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>-118.47849600000001</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>34.380685999999997</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2499,10 +2503,10 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>-118.47849600000001</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>34.111685999999999</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -2516,10 +2520,10 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>-118.29991699999999</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>34.137762000000002</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2533,10 +2537,10 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>-118.095428</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>34.118650000000002</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2550,10 +2554,10 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>-118.095428</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>34.158650000000002</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2567,10 +2571,10 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>-118.095428</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>33.91865</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2584,10 +2588,10 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>-118.095428</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>33.718649999999997</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2601,10 +2605,10 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>-118.19542800000001</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>34.018650000000001</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -2618,10 +2622,10 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>-118.395428</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>34.018650000000001</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -2635,10 +2639,10 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>-117.995428</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>34.018650000000001</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2652,10 +2656,10 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>-117.795428</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>34.018650000000001</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -2669,10 +2673,10 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>-117.995428</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>34.018650000000001</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2686,10 +2690,10 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>-118.481217</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>34.312455999999997</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2703,10 +2707,10 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>-118.891217</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>34.315455999999998</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -2720,10 +2724,10 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>-118.391667</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>34.243600000000001</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2737,10 +2741,10 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>-117.166428</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>34.566257999999998</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2754,10 +2758,10 @@
         <v>61</v>
       </c>
       <c r="C64">
-        <v>-117.36842799999999</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>34.565258</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -2771,10 +2775,10 @@
         <v>62</v>
       </c>
       <c r="C65">
-        <v>-106.60906</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>46.064672000000002</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2788,10 +2792,10 @@
         <v>63</v>
       </c>
       <c r="C66">
-        <v>-106.80906</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>46.565671999999999</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2805,10 +2809,10 @@
         <v>64</v>
       </c>
       <c r="C67">
-        <v>-122.68128900000001</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>45.514570999999997</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2822,10 +2826,10 @@
         <v>64</v>
       </c>
       <c r="C68">
-        <v>-121.114785</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>45.606833000000002</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2839,10 +2843,10 @@
         <v>64</v>
       </c>
       <c r="C69">
-        <v>-122.11378499999999</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>45.806832999999997</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2856,10 +2860,10 @@
         <v>65</v>
       </c>
       <c r="C70">
-        <v>-123.29</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>44.89</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2873,10 +2877,10 @@
         <v>66</v>
       </c>
       <c r="C71">
-        <v>-121.312202</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>45.596415999999998</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2890,10 +2894,10 @@
         <v>67</v>
       </c>
       <c r="C72">
-        <v>-121.11420200000001</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>45.295416000000003</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2907,10 +2911,10 @@
         <v>68</v>
       </c>
       <c r="C73">
-        <v>-106.612578</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>45.891160999999997</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2924,10 +2928,10 @@
         <v>69</v>
       </c>
       <c r="C74">
-        <v>-118.997945</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>47.954898999999997</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2941,10 +2945,10 @@
         <v>70</v>
       </c>
       <c r="C75">
-        <v>-112.88531</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>46.51144</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2958,10 +2962,10 @@
         <v>71</v>
       </c>
       <c r="C76">
-        <v>-120.692286</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>45.913936</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2975,10 +2979,10 @@
         <v>71</v>
       </c>
       <c r="C77">
-        <v>-120.693974</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>45.713935999999997</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2992,10 +2996,10 @@
         <v>72</v>
       </c>
       <c r="C78">
-        <v>-119.571501</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>46.669334999999997</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3009,10 +3013,10 @@
         <v>73</v>
       </c>
       <c r="C79">
-        <v>-120.997945</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>47.954898999999997</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3026,10 +3030,10 @@
         <v>74</v>
       </c>
       <c r="C80">
-        <v>-122.219492</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>47.624153999999997</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3043,10 +3047,10 @@
         <v>75</v>
       </c>
       <c r="C81">
-        <v>-118.77463</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>43.784730000000003</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3060,10 +3064,10 @@
         <v>76</v>
       </c>
       <c r="C82">
-        <v>-121.01948400000001</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>44.482349999999997</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3077,10 +3081,10 @@
         <v>77</v>
       </c>
       <c r="C83">
-        <v>-121.316546</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>42.006860000000003</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3094,10 +3098,10 @@
         <v>78</v>
       </c>
       <c r="C84">
-        <v>-114.419206</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>42.934919000000001</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3111,10 +3115,10 @@
         <v>78</v>
       </c>
       <c r="C85">
-        <v>-114.419206</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>42.731918999999998</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3128,10 +3132,10 @@
         <v>79</v>
       </c>
       <c r="C86">
-        <v>-120.95647599999999</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>43.013134999999998</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3145,10 +3149,10 @@
         <v>80</v>
       </c>
       <c r="C87">
-        <v>-120.79483999999999</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>44.068350000000002</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3162,10 +3166,10 @@
         <v>81</v>
       </c>
       <c r="C88">
-        <v>-120.93483999999999</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>43.558349999999997</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3179,10 +3183,10 @@
         <v>82</v>
       </c>
       <c r="C89">
-        <v>-121.21654599999999</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>42.43835</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3196,10 +3200,10 @@
         <v>83</v>
       </c>
       <c r="C90">
-        <v>-121.15654600000001</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>42.93835</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3213,10 +3217,10 @@
         <v>84</v>
       </c>
       <c r="C91">
-        <v>-121.215484</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>44.068350000000002</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3230,10 +3234,10 @@
         <v>85</v>
       </c>
       <c r="C92">
-        <v>-121.13548400000001</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>43.558349999999997</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3247,10 +3251,10 @@
         <v>86</v>
       </c>
       <c r="C93">
-        <v>-121.255484</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>43.048349999999999</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3264,10 +3268,10 @@
         <v>87</v>
       </c>
       <c r="C94">
-        <v>-121.175484</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>42.638350000000003</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3281,10 +3285,10 @@
         <v>88</v>
       </c>
       <c r="C95">
-        <v>-121.01348400000001</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>44.068350000000002</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3298,10 +3302,10 @@
         <v>89</v>
       </c>
       <c r="C96">
-        <v>-120.733484</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>43.558349999999997</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3315,10 +3319,10 @@
         <v>90</v>
       </c>
       <c r="C97">
-        <v>-121.053484</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>43.048349999999999</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3332,10 +3336,10 @@
         <v>91</v>
       </c>
       <c r="C98">
-        <v>-120.973484</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>42.638350000000003</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3349,10 +3353,10 @@
         <v>92</v>
       </c>
       <c r="C99">
-        <v>-118.865882</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>43.620189000000003</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3366,10 +3370,10 @@
         <v>93</v>
       </c>
       <c r="C100">
-        <v>-122.07363100000001</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>39.120427999999997</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -3383,10 +3387,10 @@
         <v>94</v>
       </c>
       <c r="C101">
-        <v>-122.263453</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>40.398031000000003</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>3</v>
@@ -3400,10 +3404,10 @@
         <v>95</v>
       </c>
       <c r="C102">
-        <v>-120.847567</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>35.216200000000001</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>2</v>
@@ -3417,10 +3421,10 @@
         <v>96</v>
       </c>
       <c r="C103">
-        <v>-120.900567</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>35.215200000000003</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -3434,10 +3438,10 @@
         <v>97</v>
       </c>
       <c r="C104">
-        <v>-120.12984899999999</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>36.202098999999997</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -3451,10 +3455,10 @@
         <v>98</v>
       </c>
       <c r="C105">
-        <v>-122.142965</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>39.777745000000003</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -3468,10 +3472,10 @@
         <v>99</v>
       </c>
       <c r="C106">
-        <v>-122.26299299999999</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>39.539597999999998</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -3485,10 +3489,10 @@
         <v>100</v>
       </c>
       <c r="C107">
-        <v>-121.021929</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>37.052928999999999</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -3502,10 +3506,10 @@
         <v>101</v>
       </c>
       <c r="C108">
-        <v>-119.450452</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>35.403216999999998</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -3519,10 +3523,10 @@
         <v>101</v>
       </c>
       <c r="C109">
-        <v>-119.450452</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>35.352217000000003</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -3536,10 +3540,10 @@
         <v>102</v>
       </c>
       <c r="C110">
-        <v>-121.779037</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>36.807243</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -3553,10 +3557,10 @@
         <v>103</v>
       </c>
       <c r="C111">
-        <v>-122.276225</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>39.567450000000001</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>3</v>
@@ -3570,10 +3574,10 @@
         <v>104</v>
       </c>
       <c r="C112">
-        <v>-122.135718</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>40.807689000000003</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -3587,10 +3591,10 @@
         <v>104</v>
       </c>
       <c r="C113">
-        <v>-121.93571799999999</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>40.806688999999999</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -3604,10 +3608,10 @@
         <v>104</v>
       </c>
       <c r="C114">
-        <v>-121.93571799999999</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>41.008688999999997</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -3621,10 +3625,10 @@
         <v>105</v>
       </c>
       <c r="C115">
-        <v>-121.24</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>39.555494000000003</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>3</v>
@@ -3638,10 +3642,10 @@
         <v>106</v>
       </c>
       <c r="C116">
-        <v>-121.18379</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>37.954720999999999</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -3655,10 +3659,10 @@
         <v>106</v>
       </c>
       <c r="C117">
-        <v>-121.10879</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>38.406720999999997</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>3</v>
@@ -3672,10 +3676,10 @@
         <v>107</v>
       </c>
       <c r="C118">
-        <v>-121.27379000000001</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>38.906720999999997</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>3</v>
@@ -3689,10 +3693,10 @@
         <v>106</v>
       </c>
       <c r="C119">
-        <v>-121.23979</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>38.656720999999997</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -3706,10 +3710,10 @@
         <v>108</v>
       </c>
       <c r="C120">
-        <v>-122.276225</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>39.367449999999998</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>3</v>
@@ -3723,10 +3727,10 @@
         <v>109</v>
       </c>
       <c r="C121">
-        <v>-122.276225</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>39.167450000000002</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>3</v>
@@ -3740,10 +3744,10 @@
         <v>110</v>
       </c>
       <c r="C122">
-        <v>-122.276225</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>38.967449999999999</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>3</v>
@@ -3757,10 +3761,10 @@
         <v>111</v>
       </c>
       <c r="C123">
-        <v>-122.276225</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>38.767449999999997</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>3</v>
@@ -3774,10 +3778,10 @@
         <v>112</v>
       </c>
       <c r="C124">
-        <v>-121.65571799999999</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>40.857689000000001</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>3</v>
@@ -3791,10 +3795,10 @@
         <v>113</v>
       </c>
       <c r="C125">
-        <v>-121.65571799999999</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>40.654688999999998</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>3</v>
@@ -3808,10 +3812,10 @@
         <v>114</v>
       </c>
       <c r="C126">
-        <v>-121.850718</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>40.657688999999998</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -3825,10 +3829,10 @@
         <v>115</v>
       </c>
       <c r="C127">
-        <v>-121.850718</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>40.454689000000002</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>3</v>
@@ -3842,10 +3846,10 @@
         <v>116</v>
       </c>
       <c r="C128">
-        <v>-121.640407</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>39.555494000000003</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>3</v>
@@ -3859,10 +3863,10 @@
         <v>117</v>
       </c>
       <c r="C129">
-        <v>-121.44040699999999</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>39.501494000000001</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>3</v>
@@ -3876,10 +3880,10 @@
         <v>118</v>
       </c>
       <c r="C130">
-        <v>-121.744407</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>39.655493999999997</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>3</v>
@@ -3893,10 +3897,10 @@
         <v>119</v>
       </c>
       <c r="C131">
-        <v>-121.744407</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>39.351494000000002</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>3</v>
@@ -3910,10 +3914,10 @@
         <v>120</v>
       </c>
       <c r="C132">
-        <v>-121.18379</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>38.154721000000002</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -3927,10 +3931,10 @@
         <v>107</v>
       </c>
       <c r="C133">
-        <v>-121.13079</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>37.954720999999999</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -3944,10 +3948,10 @@
         <v>121</v>
       </c>
       <c r="C134">
-        <v>-121.23779</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>37.754721000000004</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -3961,10 +3965,10 @@
         <v>122</v>
       </c>
       <c r="C135">
-        <v>-120.12984899999999</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>36.001099000000004</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -3978,10 +3982,10 @@
         <v>123</v>
       </c>
       <c r="C136">
-        <v>-116.577985</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>33.937268000000003</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -3995,10 +3999,10 @@
         <v>124</v>
       </c>
       <c r="C137">
-        <v>-118.184318</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>34.150835000000001</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -4012,10 +4016,10 @@
         <v>125</v>
       </c>
       <c r="C138">
-        <v>-118.184318</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>34.208350000000003</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -4029,10 +4033,10 @@
         <v>125</v>
       </c>
       <c r="C139">
-        <v>-118.184318</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>34.101835000000001</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -4046,10 +4050,10 @@
         <v>126</v>
       </c>
       <c r="C140">
-        <v>-118.17517700000001</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>33.880490999999999</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -4063,10 +4067,10 @@
         <v>126</v>
       </c>
       <c r="C141">
-        <v>-118.17517700000001</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>33.829490999999997</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -4080,10 +4084,10 @@
         <v>127</v>
       </c>
       <c r="C142">
-        <v>-117.369299</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>34.366726999999997</v>
+        <v>0</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -4097,10 +4101,10 @@
         <v>128</v>
       </c>
       <c r="C143">
-        <v>-118.10926499999999</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>34.037453999999997</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -4114,10 +4118,10 @@
         <v>129</v>
       </c>
       <c r="C144">
-        <v>-117.5645</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>34.007821</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -4131,10 +4135,10 @@
         <v>129</v>
       </c>
       <c r="C145">
-        <v>-117.5125</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>34.007821</v>
+        <v>0</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -4148,10 +4152,10 @@
         <v>129</v>
       </c>
       <c r="C146">
-        <v>-117.7105</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>34.007821</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -4165,10 +4169,10 @@
         <v>130</v>
       </c>
       <c r="C147">
-        <v>-114.59530700000001</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>34.947654</v>
+        <v>0</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -4182,10 +4186,10 @@
         <v>131</v>
       </c>
       <c r="C148">
-        <v>-114.59530700000001</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>35.148654000000001</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -4199,10 +4203,10 @@
         <v>132</v>
       </c>
       <c r="C149">
-        <v>-118.582763</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>34.439084000000001</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -4216,10 +4220,10 @@
         <v>132</v>
       </c>
       <c r="C150">
-        <v>-118.582763</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>34.388083999999999</v>
+        <v>0</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -4233,10 +4237,10 @@
         <v>133</v>
       </c>
       <c r="C151">
-        <v>-117.78936</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>33.82931</v>
+        <v>0</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -4250,10 +4254,10 @@
         <v>60</v>
       </c>
       <c r="C152">
-        <v>-118.391667</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>34.243600000000001</v>
+        <v>0</v>
       </c>
       <c r="E152">
         <v>2</v>
@@ -4267,10 +4271,10 @@
         <v>134</v>
       </c>
       <c r="C153">
-        <v>-118.118227</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>34.636246999999997</v>
+        <v>0</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -4284,10 +4288,10 @@
         <v>134</v>
       </c>
       <c r="C154">
-        <v>-118.118227</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>34.434246999999999</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>2</v>
@@ -4301,10 +4305,10 @@
         <v>135</v>
       </c>
       <c r="C155">
-        <v>-111.947715</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>40.469158</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -4318,10 +4322,10 @@
         <v>136</v>
       </c>
       <c r="C156">
-        <v>-112.04817199999999</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>41.438578</v>
+        <v>0</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -4335,10 +4339,10 @@
         <v>136</v>
       </c>
       <c r="C157">
-        <v>-112.04817199999999</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>41.239578000000002</v>
+        <v>0</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -4352,10 +4356,10 @@
         <v>137</v>
       </c>
       <c r="C158">
-        <v>-110.77873700000001</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>39.177374999999998</v>
+        <v>0</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -4369,10 +4373,10 @@
         <v>137</v>
       </c>
       <c r="C159">
-        <v>-111.07973699999999</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>39.177374999999998</v>
+        <v>0</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -4386,10 +4390,10 @@
         <v>138</v>
       </c>
       <c r="C160">
-        <v>-111.908691</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>39.809556000000001</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -4403,10 +4407,10 @@
         <v>139</v>
       </c>
       <c r="C161">
-        <v>-110.6005</v>
+        <v>0</v>
       </c>
       <c r="D161">
-        <v>41.758499999999998</v>
+        <v>0</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -4420,10 +4424,10 @@
         <v>140</v>
       </c>
       <c r="C162">
-        <v>-110.40049999999999</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>41.555500000000002</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -4437,10 +4441,10 @@
         <v>141</v>
       </c>
       <c r="C163">
-        <v>-109.314458</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>38.020747</v>
+        <v>0</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -4454,10 +4458,10 @@
         <v>142</v>
       </c>
       <c r="C164">
-        <v>-109.314458</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>37.829746999999998</v>
+        <v>0</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -4471,10 +4475,10 @@
         <v>143</v>
       </c>
       <c r="C165">
-        <v>-111.506269</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>40.080517</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -4488,10 +4492,10 @@
         <v>144</v>
       </c>
       <c r="C166">
-        <v>-111.994022</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>38.843763000000003</v>
+        <v>0</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -4505,10 +4509,10 @@
         <v>145</v>
       </c>
       <c r="C167">
-        <v>-112.00726299999999</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>40.757317</v>
+        <v>0</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -4522,10 +4526,10 @@
         <v>146</v>
       </c>
       <c r="C168">
-        <v>-121.316546</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>41.80686</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>3</v>
@@ -4539,10 +4543,10 @@
         <v>147</v>
       </c>
       <c r="C169">
-        <v>-121.316546</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>41.601860000000002</v>
+        <v>0</v>
       </c>
       <c r="E169">
         <v>3</v>
@@ -4556,10 +4560,10 @@
         <v>148</v>
       </c>
       <c r="C170">
-        <v>-121.116546</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>41.80686</v>
+        <v>0</v>
       </c>
       <c r="E170">
         <v>3</v>
@@ -4573,10 +4577,10 @@
         <v>149</v>
       </c>
       <c r="C171">
-        <v>-121.116546</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>41.601860000000002</v>
+        <v>0</v>
       </c>
       <c r="E171">
         <v>3</v>
@@ -4590,10 +4594,10 @@
         <v>150</v>
       </c>
       <c r="C172">
-        <v>-121.511546</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>41.80686</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -4607,10 +4611,10 @@
         <v>151</v>
       </c>
       <c r="C173">
-        <v>-121.511546</v>
+        <v>0</v>
       </c>
       <c r="D173">
-        <v>41.606859999999998</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>3</v>
@@ -4624,10 +4628,10 @@
         <v>152</v>
       </c>
       <c r="C174">
-        <v>-119.600452</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>35.453217000000002</v>
+        <v>0</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -4641,10 +4645,10 @@
         <v>153</v>
       </c>
       <c r="C175">
-        <v>-119.600452</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>35.258217000000002</v>
+        <v>0</v>
       </c>
       <c r="E175">
         <v>2</v>
@@ -4658,10 +4662,10 @@
         <v>154</v>
       </c>
       <c r="C176">
-        <v>-119.405452</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>35.453217000000002</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>2</v>
@@ -4675,10 +4679,10 @@
         <v>155</v>
       </c>
       <c r="C177">
-        <v>-119.405452</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>35.258217000000002</v>
+        <v>0</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -4692,10 +4696,10 @@
         <v>156</v>
       </c>
       <c r="C178">
-        <v>-119.30045200000001</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>35.453217000000002</v>
+        <v>0</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -4709,10 +4713,10 @@
         <v>157</v>
       </c>
       <c r="C179">
-        <v>-119.30045200000001</v>
+        <v>0</v>
       </c>
       <c r="D179">
-        <v>35.258217000000002</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -4726,13 +4730,18 @@
         <v>158</v>
       </c>
       <c r="C180">
-        <v>-118.97463</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <v>43.785730000000001</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
